--- a/用户.xlsx
+++ b/用户.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>v2ray 用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>毕英伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪文博的同学p</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +438,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -463,7 +467,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="2">
         <f ca="1">NOW()</f>
-        <v>43512.773556250002</v>
+        <v>43513.571028240738</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -493,7 +497,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTA(B3:B12)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
@@ -524,7 +528,7 @@
       </c>
       <c r="J3" s="4">
         <f>SUM(E3:E12)</f>
-        <v>210</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -585,7 +589,7 @@
       </c>
       <c r="J5" s="3">
         <f>J3-J4</f>
-        <v>-90</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -620,7 +624,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1">
-        <v>43514</v>
+        <v>43512</v>
       </c>
       <c r="D7" s="1">
         <v>43532</v>
@@ -639,6 +643,25 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43513</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43541</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8" t="b">
+        <f ca="1">IF(D8&lt;H1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">

--- a/用户.xlsx
+++ b/用户.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucy/Desktop/V2ray/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -53,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>孟子全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>激活时间（天）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,13 +94,23 @@
   </si>
   <si>
     <t>汪文博的同学p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孟子权</t>
+    <rPh sb="1" eb="2">
+      <t>zi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>quan</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,22 +451,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="9.75" customWidth="1"/>
-    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -467,7 +481,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="2">
         <f ca="1">NOW()</f>
-        <v>43513.571028240738</v>
+        <v>43515.783398842592</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -490,17 +504,17 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" s="3">
         <f>COUNTA(B3:B12)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -524,7 +538,7 @@
         <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4">
         <f>SUM(E3:E12)</f>
@@ -536,7 +550,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <v>43510</v>
@@ -555,7 +569,7 @@
         <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3">
         <v>300</v>
@@ -566,7 +580,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1">
         <v>43511</v>
@@ -585,7 +599,7 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3">
         <f>J3-J4</f>
@@ -597,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
         <v>43511</v>
@@ -621,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>43512</v>
@@ -645,7 +659,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>43513</v>

--- a/用户.xlsx
+++ b/用户.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>v2ray 用户信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,57 @@
     <rPh sb="2" eb="3">
       <t>quan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李修齐</t>
+    <rPh sb="0" eb="1">
+      <t>li xiu qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨墨淋</t>
+    <rPh sb="2" eb="3">
+      <t>lin yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肖金哲</t>
+    <rPh sb="0" eb="1">
+      <t>xiao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhe xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾lujia</t>
+    <rPh sb="0" eb="1">
+      <t>jia xiu yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋元博</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -481,7 +532,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="2">
         <f ca="1">NOW()</f>
-        <v>43515.783398842592</v>
+        <v>43529.711454629629</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -511,7 +562,7 @@
       </c>
       <c r="J2" s="3">
         <f>COUNTA(B3:B12)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
@@ -542,7 +593,7 @@
       </c>
       <c r="J3" s="4">
         <f>SUM(E3:E12)</f>
-        <v>240</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -603,7 +654,7 @@
       </c>
       <c r="J5" s="3">
         <f>J3-J4</f>
-        <v>-60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -682,14 +733,83 @@
       <c r="A9">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43529</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43560</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9" t="b">
+        <f ca="1">IF(D9&lt;H1,TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>60</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
